--- a/public/data/standard/TriDNA-standard.xlsx
+++ b/public/data/standard/TriDNA-standard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43329891-6B9B-4E2C-9A06-549175A7AF44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC2B7FF-379E-48EC-829E-18EB23BEC2A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t xml:space="preserve"> Bendability (DNAse) </t>
   </si>
@@ -314,16 +314,27 @@
     <t>REID0028</t>
   </si>
   <si>
-    <t>REID0031,REID0032</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>REID0033</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>REID0034</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TD0005-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REID0032</t>
+  </si>
+  <si>
+    <t>TD0006-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REID0032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -660,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1712,9 +1723,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="D6">
+        <v>12824394</v>
+      </c>
       <c r="E6" s="1">
         <v>-2.7440000000000002</v>
       </c>
@@ -1910,15 +1923,17 @@
     </row>
     <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="D7">
+        <v>8956078</v>
+      </c>
       <c r="E7" s="1">
         <v>-2.7440000000000002</v>
       </c>
@@ -2114,1237 +2129,1649 @@
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="2">
-        <v>7737131</v>
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>12824394</v>
       </c>
       <c r="E8" s="1">
-        <v>2.274</v>
+        <v>-2.7440000000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>1.105</v>
+        <v>-1.363</v>
       </c>
       <c r="G8" s="1">
-        <v>0.193</v>
+        <v>-0.26</v>
       </c>
       <c r="H8" s="1">
-        <v>2.141</v>
+        <v>-2.5910000000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-0.153</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>-7.8E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="K8" s="1">
-        <v>-7.3999999999999996E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>0.53600000000000003</v>
+        <v>-0.67600000000000005</v>
       </c>
       <c r="M8" s="1">
-        <v>0.109</v>
+        <v>-0.158</v>
       </c>
       <c r="N8" s="1">
-        <v>-0.753</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="O8" s="1">
-        <v>3.9E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="P8" s="1">
-        <v>0.53600000000000003</v>
+        <v>-0.67600000000000005</v>
       </c>
       <c r="Q8" s="1">
-        <v>-0.49099999999999999</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="R8" s="1">
-        <v>0.307</v>
+        <v>-0.39700000000000002</v>
       </c>
       <c r="S8" s="1">
-        <v>-1.1120000000000001</v>
+        <v>1.3580000000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>2.141</v>
+        <v>-2.5910000000000002</v>
       </c>
       <c r="U8" s="1">
-        <v>0.16600000000000001</v>
+        <v>-0.22600000000000001</v>
       </c>
       <c r="V8" s="1">
-        <v>-0.64600000000000002</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>-0.76200000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="X8" s="1">
-        <v>-1.1120000000000001</v>
+        <v>1.3580000000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.91700000000000004</v>
+        <v>-1.139</v>
       </c>
       <c r="Z8" s="1">
-        <v>-0.3</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.55800000000000005</v>
+        <v>-0.70499999999999996</v>
       </c>
       <c r="AB8" s="1">
-        <v>3.9E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AC8" s="1">
-        <v>-0.83399999999999996</v>
+        <v>1.012</v>
       </c>
       <c r="AD8" s="1">
-        <v>-0.32600000000000001</v>
+        <v>0.379</v>
       </c>
       <c r="AE8" s="1">
-        <v>0.55800000000000005</v>
+        <v>-0.70499999999999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>-7.3999999999999996E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG8" s="1">
-        <v>6.2E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="AH8" s="1">
-        <v>-0.36499999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>-0.76200000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0.193</v>
+        <v>-0.26</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.47399999999999998</v>
+        <v>-0.6</v>
       </c>
       <c r="AL8" s="1">
-        <v>-0.16500000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-0.36499999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.307</v>
+        <v>-0.39700000000000002</v>
       </c>
       <c r="AO8" s="1">
-        <v>-0.70199999999999996</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>-1.6870000000000001</v>
+        <v>2.089</v>
       </c>
       <c r="AQ8" s="1">
-        <v>-0.32600000000000001</v>
+        <v>0.379</v>
       </c>
       <c r="AR8" s="1">
-        <v>-0.753</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="AS8" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="AT8" s="1">
-        <v>-1.6870000000000001</v>
+        <v>2.089</v>
       </c>
       <c r="AU8" s="1">
-        <v>-0.3</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="AV8" s="1">
-        <v>-7.8E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="AW8" s="1">
-        <v>3.1E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="AX8" s="1">
-        <v>-0.16500000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="AY8" s="1">
-        <v>-0.64600000000000002</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.105</v>
+        <v>-1.363</v>
       </c>
       <c r="BA8" s="1">
-        <v>0.20599999999999999</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="BB8" s="1">
-        <v>3.1E-2</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="BC8" s="1">
-        <v>6.2E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="BD8" s="1">
-        <v>-0.49099999999999999</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="BE8" s="1">
-        <v>-1.103</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>6.6000000000000003E-2</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-0.83399999999999996</v>
+        <v>1.012</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.109</v>
+        <v>-0.158</v>
       </c>
       <c r="BI8" s="1">
-        <v>4.5220000000000002</v>
+        <v>1.3480000000000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>-0.70199999999999996</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="BK8" s="1">
-        <v>0.91700000000000004</v>
+        <v>-1.139</v>
       </c>
       <c r="BL8" s="1">
-        <v>-0.153</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.20599999999999999</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="BN8" s="1">
-        <v>0.47399999999999998</v>
+        <v>-0.6</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.16600000000000001</v>
+        <v>-0.22600000000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>-2.6150000000000002</v>
+        <v>-2.7440000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7737131</v>
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>8956078</v>
       </c>
       <c r="E9" s="1">
-        <v>2.1179999999999999</v>
+        <v>-2.7440000000000002</v>
       </c>
       <c r="F9" s="1">
-        <v>1.516</v>
+        <v>-1.363</v>
       </c>
       <c r="G9" s="1">
-        <v>0.49299999999999999</v>
+        <v>-0.26</v>
       </c>
       <c r="H9" s="1">
-        <v>2.1579999999999999</v>
+        <v>-2.5910000000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-0.123</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.107</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="K9" s="1">
-        <v>0.107</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>1.357</v>
+        <v>-0.67600000000000005</v>
       </c>
       <c r="M9" s="1">
-        <v>-0.38900000000000001</v>
+        <v>-0.158</v>
       </c>
       <c r="N9" s="1">
-        <v>-0.313</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="O9" s="1">
-        <v>0.3</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="P9" s="1">
-        <v>1.357</v>
+        <v>-0.67600000000000005</v>
       </c>
       <c r="Q9" s="1">
-        <v>-1.585</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="R9" s="1">
-        <v>0.72699999999999998</v>
+        <v>-0.39700000000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-1.2150000000000001</v>
+        <v>1.3580000000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>2.1579999999999999</v>
+        <v>-2.5910000000000002</v>
       </c>
       <c r="U9" s="1">
+        <v>-0.22600000000000001</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-1.139</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>-0.70499999999999996</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1.012</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0.379</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>-0.70499999999999996</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>-0.26</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>-0.39700000000000002</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>2.089</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0.379</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>2.089</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>-1.363</v>
+      </c>
+      <c r="BA9" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="V9" s="1">
-        <v>-0.503</v>
-      </c>
-      <c r="W9" s="1">
-        <v>-1.5489999999999999</v>
-      </c>
-      <c r="X9" s="1">
-        <v>-1.2150000000000001</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>-0.123</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0.107</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>-0.88</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>-0.42699999999999999</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>-1.5489999999999999</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>-0.42699999999999999</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>-0.76700000000000002</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>-1.0289999999999999</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>-0.313</v>
-      </c>
-      <c r="AS9" s="1">
+      <c r="BB9" s="1">
+        <v>-6.2E-2</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>-0.10299999999999999</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>1.012</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>-0.158</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>-1.139</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="BM9" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="AT9" s="1">
-        <v>-1.0289999999999999</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>-8.4000000000000005E-2</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0.107</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>-0.35099999999999998</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>-4.5999999999999999E-2</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>-0.503</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>1.516</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>-0.69199999999999995</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>-0.35099999999999998</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>-0.88</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>-1.585</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>-1.696</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>-0.27500000000000002</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>-0.123</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>-0.38900000000000001</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>-1.696</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>-0.76700000000000002</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>-0.123</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>-0.69199999999999995</v>
-      </c>
       <c r="BN9" s="1">
-        <v>0.14599999999999999</v>
+        <v>-0.6</v>
       </c>
       <c r="BO9" s="1">
-        <v>-0.27500000000000002</v>
+        <v>-0.22600000000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>2.1179999999999999</v>
+        <v>-2.7440000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2">
-        <v>12824394</v>
+        <v>7737131</v>
       </c>
       <c r="E10" s="1">
-        <v>-1</v>
+        <v>2.274</v>
       </c>
       <c r="F10" s="1">
-        <v>-1</v>
+        <v>1.105</v>
       </c>
       <c r="G10" s="1">
-        <v>-1</v>
+        <v>0.193</v>
       </c>
       <c r="H10" s="1">
-        <v>-1</v>
+        <v>2.141</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>-0.153</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0.109</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>-0.753</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>3.9E-2</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>-1</v>
+        <v>-0.49099999999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>-1</v>
+        <v>0.307</v>
       </c>
       <c r="S10" s="1">
-        <v>-1</v>
+        <v>-1.1120000000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>-1</v>
+        <v>2.141</v>
       </c>
       <c r="U10" s="1">
-        <v>-1</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="V10" s="1">
-        <v>-1</v>
+        <v>-0.64600000000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>-1</v>
+        <v>-0.76200000000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-1</v>
+        <v>-1.1120000000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="Z10" s="1">
-        <v>1</v>
+        <v>-0.3</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>3.9E-2</v>
       </c>
       <c r="AC10" s="1">
-        <v>1</v>
+        <v>-0.83399999999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>1</v>
+        <v>-0.32600000000000001</v>
       </c>
       <c r="AE10" s="1">
-        <v>1</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="AF10" s="1">
-        <v>1</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="AG10" s="1">
-        <v>-1</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AH10" s="1">
-        <v>-1</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>-1</v>
+        <v>-0.76200000000000001</v>
       </c>
       <c r="AJ10" s="1">
-        <v>-1</v>
+        <v>0.193</v>
       </c>
       <c r="AK10" s="1">
-        <v>-1</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>-1</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-1</v>
+        <v>-0.36499999999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>-1</v>
+        <v>0.307</v>
       </c>
       <c r="AO10" s="1">
-        <v>1</v>
+        <v>-0.70199999999999996</v>
       </c>
       <c r="AP10" s="1">
-        <v>1</v>
+        <v>-1.6870000000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1</v>
+        <v>-0.32600000000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>1</v>
+        <v>-0.753</v>
       </c>
       <c r="AS10" s="1">
-        <v>1</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="AT10" s="1">
-        <v>1</v>
+        <v>-1.6870000000000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>1</v>
+        <v>-0.3</v>
       </c>
       <c r="AV10" s="1">
-        <v>1</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="AW10" s="1">
-        <v>-1</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AX10" s="1">
-        <v>-1</v>
+        <v>-0.16500000000000001</v>
       </c>
       <c r="AY10" s="1">
-        <v>-1</v>
+        <v>-0.64600000000000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>-1</v>
+        <v>1.105</v>
       </c>
       <c r="BA10" s="1">
-        <v>-1</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-1</v>
+        <v>3.1E-2</v>
       </c>
       <c r="BC10" s="1">
-        <v>-1</v>
+        <v>6.2E-2</v>
       </c>
       <c r="BD10" s="1">
-        <v>-1</v>
+        <v>-0.49099999999999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>1</v>
+        <v>-1.103</v>
       </c>
       <c r="BF10" s="1">
-        <v>1</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="BG10" s="1">
-        <v>1</v>
+        <v>-0.83399999999999996</v>
       </c>
       <c r="BH10" s="1">
-        <v>1</v>
+        <v>0.109</v>
       </c>
       <c r="BI10" s="1">
-        <v>1</v>
+        <v>4.5220000000000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1</v>
+        <v>-0.70199999999999996</v>
       </c>
       <c r="BK10" s="1">
-        <v>1</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="BL10" s="1">
-        <v>1</v>
+        <v>-0.153</v>
       </c>
       <c r="BM10" s="1">
-        <v>-1</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="BN10" s="1">
-        <v>-1</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>-1</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>-1</v>
+        <v>-2.6150000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2">
-        <v>12824394</v>
+        <v>7737131</v>
       </c>
       <c r="E11" s="1">
-        <v>-1</v>
+        <v>2.1179999999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>-1</v>
+        <v>1.516</v>
       </c>
       <c r="G11" s="1">
-        <v>-1</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>-1</v>
+        <v>2.1579999999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>-0.123</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0.107</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0.107</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>1.357</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>-0.38900000000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>-0.313</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>1.357</v>
       </c>
       <c r="Q11" s="1">
-        <v>-1</v>
+        <v>-1.585</v>
       </c>
       <c r="R11" s="1">
-        <v>-1</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="S11" s="1">
-        <v>-1</v>
+        <v>-1.2150000000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>-1</v>
+        <v>2.1579999999999999</v>
       </c>
       <c r="U11" s="1">
-        <v>-1</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="V11" s="1">
-        <v>-1</v>
+        <v>-0.503</v>
       </c>
       <c r="W11" s="1">
-        <v>-1</v>
+        <v>-1.5489999999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-1</v>
+        <v>-1.2150000000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>1.8759999999999999</v>
       </c>
       <c r="Z11" s="1">
-        <v>1</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="AA11" s="1">
-        <v>1</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="AC11" s="1">
-        <v>1</v>
+        <v>-0.123</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="AE11" s="1">
-        <v>1</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>1</v>
+        <v>0.107</v>
       </c>
       <c r="AG11" s="1">
-        <v>-1</v>
+        <v>-0.88</v>
       </c>
       <c r="AH11" s="1">
-        <v>-1</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>-1</v>
+        <v>-1.5489999999999999</v>
       </c>
       <c r="AJ11" s="1">
-        <v>-1</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>-1</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>-1</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="AM11" s="1">
-        <v>-1</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>-1</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="AO11" s="1">
-        <v>1</v>
+        <v>-0.76700000000000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>1</v>
+        <v>-1.0289999999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>1</v>
+        <v>-0.313</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="AT11" s="1">
-        <v>1</v>
+        <v>-1.0289999999999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>1</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="AV11" s="1">
-        <v>1</v>
+        <v>0.107</v>
       </c>
       <c r="AW11" s="1">
-        <v>-1</v>
+        <v>-0.35099999999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>-1</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="AY11" s="1">
-        <v>-1</v>
+        <v>-0.503</v>
       </c>
       <c r="AZ11" s="1">
-        <v>-1</v>
+        <v>1.516</v>
       </c>
       <c r="BA11" s="1">
-        <v>-1</v>
+        <v>-0.69199999999999995</v>
       </c>
       <c r="BB11" s="1">
-        <v>-1</v>
+        <v>-0.35099999999999998</v>
       </c>
       <c r="BC11" s="1">
-        <v>-1</v>
+        <v>-0.88</v>
       </c>
       <c r="BD11" s="1">
-        <v>-1</v>
+        <v>-1.585</v>
       </c>
       <c r="BE11" s="1">
-        <v>1</v>
+        <v>-1.696</v>
       </c>
       <c r="BF11" s="1">
-        <v>1</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="BG11" s="1">
-        <v>1</v>
+        <v>-0.123</v>
       </c>
       <c r="BH11" s="1">
-        <v>1</v>
+        <v>-0.38900000000000001</v>
       </c>
       <c r="BI11" s="1">
-        <v>1</v>
+        <v>-1.696</v>
       </c>
       <c r="BJ11" s="1">
-        <v>1</v>
+        <v>-0.76700000000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1</v>
+        <v>1.8759999999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>1</v>
+        <v>-0.123</v>
       </c>
       <c r="BM11" s="1">
-        <v>-1</v>
+        <v>-0.69199999999999995</v>
       </c>
       <c r="BN11" s="1">
-        <v>-1</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>-1</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>-1</v>
+        <v>2.1179999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2">
-        <v>3806678</v>
+        <v>12824394</v>
       </c>
       <c r="E12" s="1">
-        <v>-2.3420000000000001</v>
+        <v>-1</v>
       </c>
       <c r="F12" s="1">
-        <v>-0.55500000000000005</v>
+        <v>-1</v>
       </c>
       <c r="G12" s="1">
-        <v>0.16900000000000001</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="1">
-        <v>-2.004</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="1">
-        <v>0.16900000000000001</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>0.26600000000000001</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>0.26600000000000001</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>0.45900000000000002</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>-0.748</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
-        <v>0.26600000000000001</v>
+        <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>0.45900000000000002</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>-0.99</v>
+        <v>-1</v>
       </c>
       <c r="R12" s="1">
-        <v>0.217</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="1">
-        <v>0.89300000000000002</v>
+        <v>-1</v>
       </c>
       <c r="T12" s="1">
-        <v>-2.004</v>
+        <v>-1</v>
       </c>
       <c r="U12" s="1">
-        <v>-0.748</v>
+        <v>-1</v>
       </c>
       <c r="V12" s="1">
-        <v>0.79700000000000004</v>
+        <v>-1</v>
       </c>
       <c r="W12" s="1">
-        <v>-0.314</v>
+        <v>-1</v>
       </c>
       <c r="X12" s="1">
-        <v>0.89300000000000002</v>
+        <v>-1</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.26600000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.55500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="1">
-        <v>-7.1999999999999995E-2</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="1">
-        <v>0.26600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1">
-        <v>1.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="1">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="1">
-        <v>-7.1999999999999995E-2</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.26600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="1">
-        <v>-1.28</v>
+        <v>-1</v>
       </c>
       <c r="AH12" s="1">
-        <v>0.26600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AI12" s="1">
-        <v>-0.314</v>
+        <v>-1</v>
       </c>
       <c r="AJ12" s="1">
-        <v>0.16900000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AK12" s="1">
-        <v>-0.89300000000000002</v>
+        <v>-1</v>
       </c>
       <c r="AL12" s="1">
-        <v>0.26600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AM12" s="1">
-        <v>0.26600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.217</v>
+        <v>-1</v>
       </c>
       <c r="AO12" s="1">
-        <v>0.55500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="1">
-        <v>2.4870000000000001</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AR12" s="1">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="1">
-        <v>-0.50700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
-        <v>2.4870000000000001</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.55500000000000005</v>
+        <v>1</v>
       </c>
       <c r="AV12" s="1">
-        <v>0.26600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="1">
-        <v>-0.55500000000000005</v>
+        <v>-1</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.26600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AY12" s="1">
-        <v>0.79700000000000004</v>
+        <v>-1</v>
       </c>
       <c r="AZ12" s="1">
-        <v>-0.55500000000000005</v>
+        <v>-1</v>
       </c>
       <c r="BA12" s="1">
-        <v>-1.3759999999999999</v>
+        <v>-1</v>
       </c>
       <c r="BB12" s="1">
-        <v>-0.55500000000000005</v>
+        <v>-1</v>
       </c>
       <c r="BC12" s="1">
-        <v>-1.28</v>
+        <v>-1</v>
       </c>
       <c r="BD12" s="1">
-        <v>-0.99</v>
+        <v>-1</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.26600000000000001</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="1">
-        <v>-0.50700000000000001</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="1">
-        <v>1.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="1">
-        <v>-0.748</v>
+        <v>1</v>
       </c>
       <c r="BI12" s="1">
-        <v>0.26600000000000001</v>
+        <v>1</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.55500000000000005</v>
+        <v>1</v>
       </c>
       <c r="BK12" s="1">
-        <v>0.26600000000000001</v>
+        <v>1</v>
       </c>
       <c r="BL12" s="1">
-        <v>0.16900000000000001</v>
+        <v>1</v>
       </c>
       <c r="BM12" s="1">
-        <v>-1.3759999999999999</v>
+        <v>-1</v>
       </c>
       <c r="BN12" s="1">
-        <v>-0.89300000000000002</v>
+        <v>-1</v>
       </c>
       <c r="BO12" s="1">
-        <v>-0.748</v>
+        <v>-1</v>
       </c>
       <c r="BP12" s="1">
-        <v>-2.3420000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12824394</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3806678</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-2.3420000000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.55500000000000005</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-2.004</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-0.748</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-0.99</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.217</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-2.004</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-0.748</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-0.314</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>-1.28</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>-0.314</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>-0.89300000000000002</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0.217</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>-0.50700000000000001</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>-0.55500000000000005</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>-0.55500000000000005</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>-1.3759999999999999</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>-0.55500000000000005</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>-1.28</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>-0.99</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>-0.50700000000000001</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>-0.748</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>-1.3759999999999999</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>-0.89300000000000002</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>-0.748</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>-2.3420000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="2">
         <v>3806678</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E15" s="1">
         <v>2.3860000000000001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F15" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G15" s="1">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H15" s="1">
         <v>2.032</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I15" s="1">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L15" s="1">
         <v>-0.46600000000000003</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M15" s="1">
         <v>0.74299999999999999</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N15" s="1">
         <v>-1.272</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P15" s="1">
         <v>-0.46600000000000003</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q15" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R15" s="1">
         <v>-0.22700000000000001</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S15" s="1">
         <v>-0.89400000000000002</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T15" s="1">
         <v>2.032</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U15" s="1">
         <v>0.74299999999999999</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V15" s="1">
         <v>-0.8</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W15" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X15" s="1">
         <v>-0.89400000000000002</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z15" s="1">
         <v>-0.56200000000000006</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA15" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC15" s="1">
         <v>-1.6459999999999999</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD15" s="1">
         <v>-1.272</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE15" s="1">
         <v>6.2E-2</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG15" s="1">
         <v>1.2849999999999999</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI15" s="1">
         <v>0.30399999999999999</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ15" s="1">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK15" s="1">
         <v>0.89</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AL15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AM15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AN15" s="1">
         <v>-0.22700000000000001</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AO15" s="1">
         <v>-0.56200000000000006</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AP15" s="1">
         <v>-2.4329999999999998</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AQ15" s="1">
         <v>-1.272</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="AR15" s="1">
         <v>-1.272</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="AS15" s="1">
         <v>0.499</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AT15" s="1">
         <v>-2.4329999999999998</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AU15" s="1">
         <v>-0.56200000000000006</v>
       </c>
-      <c r="AV13" s="1">
+      <c r="AV15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="AW13" s="1">
+      <c r="AW15" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="AX13" s="1">
+      <c r="AX15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="AY13" s="1">
+      <c r="AY15" s="1">
         <v>-0.8</v>
       </c>
-      <c r="AZ13" s="1">
+      <c r="AZ15" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="BA13" s="1">
+      <c r="BA15" s="1">
         <v>1.3839999999999999</v>
       </c>
-      <c r="BB13" s="1">
+      <c r="BB15" s="1">
         <v>0.54800000000000004</v>
       </c>
-      <c r="BC13" s="1">
+      <c r="BC15" s="1">
         <v>1.2849999999999999</v>
       </c>
-      <c r="BD13" s="1">
+      <c r="BD15" s="1">
         <v>0.98799999999999999</v>
       </c>
-      <c r="BE13" s="1">
+      <c r="BE15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="BF13" s="1">
+      <c r="BF15" s="1">
         <v>0.499</v>
       </c>
-      <c r="BG13" s="1">
+      <c r="BG15" s="1">
         <v>-1.6459999999999999</v>
       </c>
-      <c r="BH13" s="1">
+      <c r="BH15" s="1">
         <v>0.74299999999999999</v>
       </c>
-      <c r="BI13" s="1">
+      <c r="BI15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="BJ13" s="1">
+      <c r="BJ15" s="1">
         <v>-0.56200000000000006</v>
       </c>
-      <c r="BK13" s="1">
+      <c r="BK15" s="1">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="BL13" s="1">
+      <c r="BL15" s="1">
         <v>-0.17899999999999999</v>
       </c>
-      <c r="BM13" s="1">
+      <c r="BM15" s="1">
         <v>1.3839999999999999</v>
       </c>
-      <c r="BN13" s="1">
+      <c r="BN15" s="1">
         <v>0.89</v>
       </c>
-      <c r="BO13" s="1">
+      <c r="BO15" s="1">
         <v>0.74299999999999999</v>
       </c>
-      <c r="BP13" s="1">
+      <c r="BP15" s="1">
         <v>2.3860000000000001</v>
       </c>
     </row>
